--- a/templates/semlelista_template.xlsx
+++ b/templates/semlelista_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\Jupyter\Enterprise\SvenskaKyrkan\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69569DA0-7FDA-471C-AFBB-46F5977040E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A90FAB-7B07-475F-9574-9625147D6695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{68AC7A14-E830-42F0-B558-1EE75C4F583F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{68AC7A14-E830-42F0-B558-1EE75C4F583F}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -568,19 +568,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +592,8 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="I6" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>